--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,141 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parspack Project\CodeChallenge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785500A-52FA-46A9-9D60-33621135EFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Data File</t>
-  </si>
-  <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>OpenAI FileID</t>
-  </si>
-  <si>
-    <t>data/train-1-10.jsonl</t>
-  </si>
-  <si>
-    <t>{'length': 40, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 149, 'max': 404, 'mean': 239.725, 'median': 192.5, 'p5': 169.6, 'p95': 363.2}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 236, 'mean': 100.1, 'median': 51.0, 'p5': 37.0, 'p95': 202.70000000000005}, 'n_billing_tokens_in_dataset': 9589, 'n_epochs': 3}</t>
-  </si>
-  <si>
-    <t>file-a97PBokiB5xhZfnPbiTZTWVo</t>
-  </si>
-  <si>
-    <t>data/valid-10.jsonl</t>
-  </si>
-  <si>
-    <t>{'length': 10, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 365, 'mean': 243.4, 'median': 195.0, 'p5': 174.7, 'p95': 354.2}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 236, 'mean': 100.1, 'median': 51.0, 'p5': 37.0, 'p95': 202.7}, 'n_billing_tokens_in_dataset': 2434, 'n_epochs': 10}</t>
-  </si>
-  <si>
-    <t>file-K9RQcIq7kkIfN3h5GmKsp405</t>
-  </si>
-  <si>
-    <t>data/train-2-20.jsonl</t>
-  </si>
-  <si>
-    <t>{'length': 60, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 149, 'max': 483, 'mean': 256.81666666666666, 'median': 235.5, 'p5': 172.9, 'p95': 363.2}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 334, 'mean': 113.35, 'median': 88.0, 'p5': 38.9, 'p95': 202.70000000000005}, 'n_billing_tokens_in_dataset': 15409, 'n_epochs': 3}</t>
-  </si>
-  <si>
-    <t>file-ofw0qZibT3z9bSzboAl94ong</t>
-  </si>
-  <si>
-    <t>data/valid-20.jsonl</t>
-  </si>
-  <si>
-    <t>{'length': 20, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 470, 'mean': 257.6, 'median': 222.5, 'p5': 177.8, 'p95': 365.4}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 334, 'mean': 113.35, 'median': 88.0, 'p5': 38.9, 'p95': 202.70000000000005}, 'n_billing_tokens_in_dataset': 5152, 'n_epochs': 5}</t>
-  </si>
-  <si>
-    <t>file-bXS9aqYvQrmJ8MELejJNplmL</t>
-  </si>
-  <si>
-    <t>data/train-3-30.jsonl</t>
-  </si>
-  <si>
-    <t>{'length': 60, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 483, 'mean': 252.43333333333334, 'median': 210.0, 'p5': 176.9, 'p95': 364.1}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 334, 'mean': 108.46666666666667, 'median': 73.5, 'p5': 38.9, 'p95': 200.0}, 'n_billing_tokens_in_dataset': 15146, 'n_epochs': 3}</t>
-  </si>
-  <si>
-    <t>file-6ukfe4eyUb7zbLDrsggZij9Y</t>
-  </si>
-  <si>
-    <t>data/valid-30.jsonl</t>
-  </si>
-  <si>
-    <t>{'length': 30, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 470, 'mean': 251.83333333333334, 'median': 210.0, 'p5': 178.0, 'p95': 365.1}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 334, 'mean': 108.46666666666667, 'median': 73.5, 'p5': 38.9, 'p95': 200.0}, 'n_billing_tokens_in_dataset': 7555, 'n_epochs': 3}</t>
-  </si>
-  <si>
-    <t>file-uuZrArx3eH7IPRcsoH7GAPUJ</t>
-  </si>
-  <si>
-    <t>Job ID</t>
-  </si>
-  <si>
-    <t>Spec</t>
-  </si>
-  <si>
-    <t>ftjob-pmOC6kcD7c64KuJLfYnKJsVz</t>
-  </si>
-  <si>
-    <t>FineTuningJob(id='ftjob-pmOC6kcD7c64KuJLfYnKJsVz', created_at=1702231659, error=None, fine_tuned_model='ft:gpt-3.5-turbo-1106:parspack-data-team::8UIbIL1u', finished_at=1702232031, hyperparameters=Hyperparameters(n_epochs=3, batch_size=1, learning_rate_multiplier=2), model='gpt-3.5-turbo-1106', object='fine_tuning.job', organization_id='org-iiM0ESXNW1NzdjCPH6md1lSL', result_files=['file-mjtZ9DvxzkAfmryBgHNiPjPh'], status='succeeded', trained_tokens=28527, training_file='file-a97PBokiB5xhZfnPbiTZTWVo', validation_file='file-K9RQcIq7kkIfN3h5GmKsp405')</t>
-  </si>
-  <si>
-    <t>ftjob-XD3qPtkbT4R2GM7T9oni0AnN</t>
-  </si>
-  <si>
-    <t>FineTuningJob(id='ftjob-XD3qPtkbT4R2GM7T9oni0AnN', created_at=1702231733, error=None, fine_tuned_model='ft:gpt-3.5-turbo-1106:parspack-data-team::8UIdiAsP', finished_at=1702232181, hyperparameters=Hyperparameters(n_epochs=3, batch_size=1, learning_rate_multiplier=2), model='gpt-3.5-turbo-1106', object='fine_tuning.job', organization_id='org-iiM0ESXNW1NzdjCPH6md1lSL', result_files=['file-gPLwbaFcv4HINI1ZTniLr0Mh'], status='succeeded', trained_tokens=45867, training_file='file-ofw0qZibT3z9bSzboAl94ong', validation_file='file-bXS9aqYvQrmJ8MELejJNplmL')</t>
-  </si>
-  <si>
-    <t>ftjob-1hLF8H7wv3rJbkWya567mVtT</t>
-  </si>
-  <si>
-    <t>FineTuningJob(id='ftjob-1hLF8H7wv3rJbkWya567mVtT', created_at=1702231806, error=None, fine_tuned_model='ft:gpt-3.5-turbo-1106:parspack-data-team::8UIfKNNU', finished_at=1702232281, hyperparameters=Hyperparameters(n_epochs=3, batch_size=1, learning_rate_multiplier=2), model='gpt-3.5-turbo-1106', object='fine_tuning.job', organization_id='org-iiM0ESXNW1NzdjCPH6md1lSL', result_files=['file-oEvve2KOrdtTgPwAyepbDW2W'], status='succeeded', trained_tokens=45078, training_file='file-6ukfe4eyUb7zbLDrsggZij9Y', validation_file='file-uuZrArx3eH7IPRcsoH7GAPUJ')</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -165,46 +66,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,90 +421,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Data File</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Stats</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>OpenAI FileID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>data/train-1-25.jsonl</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>{'length': 100, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 149, 'max': 483, 'mean': 244.16, 'median': 205.0, 'p5': 172.0, 'p95': 357.6}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 334, 'mean': 102.4, 'median': 55.0, 'p5': 38.0, 'p95': 199.0}, 'n_billing_tokens_in_dataset': 24416, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>file-mvnsDRFXsXKU70DKrJEijuqp</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>data/valid-25.jsonl</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'length': 25, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 470, 'mean': 245.64, 'median': 209.0, 'p5': 178.0, 'p95': 360.20000000000005}, 'num_assistant_tokens_per_example': {'min': 28, 'max': 334, 'mean': 102.4, 'median': 55.0, 'p5': 38.4, 'p95': 197.0}, 'n_billing_tokens_in_dataset': 6141, 'n_epochs': 4}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>file-a69Evmd78U0ihKVDWLSzBjKW</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>data/train-2-50.jsonl</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{'length': 150, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 149, 'max': 483, 'mean': 255.80666666666667, 'median': 237.0, 'p5': 173.0, 'p95': 363.1}, 'num_assistant_tokens_per_example': {'min': 23, 'max': 334, 'mean': 111.68, 'median': 93.0, 'p5': 37.300000000000004, 'p95': 208.1}, 'n_billing_tokens_in_dataset': 38371, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>file-NmQpoCwrOX6Efi7Qr9KpwXlX</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>data/valid-50.jsonl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{'length': 50, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 470, 'mean': 255.82, 'median': 236.5, 'p5': 178.0, 'p95': 365.1}, 'num_assistant_tokens_per_example': {'min': 23, 'max': 334, 'mean': 111.68, 'median': 93.0, 'p5': 37.300000000000004, 'p95': 208.1}, 'n_billing_tokens_in_dataset': 12791, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>file-RC9rNbZky5aRkxRbjBA0Fgrr</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>data/train-3-75.jsonl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'length': 150, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 157, 'max': 503, 'mean': 253.18666666666667, 'median': 237.0, 'p5': 177.9, 'p95': 364.1}, 'num_assistant_tokens_per_example': {'min': 23, 'max': 335, 'mean': 107.17333333333333, 'median': 93.0, 'p5': 31.0, 'p95': 208.0}, 'n_billing_tokens_in_dataset': 37978, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>file-uEKAUF0GoXoz4xLlhAtOD3AV</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>data/valid-75.jsonl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{'length': 75, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 163, 'max': 479, 'mean': 251.97333333333333, 'median': 235.0, 'p5': 178.0, 'p95': 360.2000000000001}, 'num_assistant_tokens_per_example': {'min': 23, 'max': 335, 'mean': 107.17333333333333, 'median': 93.0, 'p5': 33.400000000000006, 'p95': 204.4000000000001}, 'n_billing_tokens_in_dataset': 18898, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>file-pOQuK7M0HRjSjnwpemDKjoDi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>data/train-3-100.jsonl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'length': 200, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 146, 'max': 503, 'mean': 248.475, 'median': 227.5, 'p5': 176.0, 'p95': 351.2}, 'num_assistant_tokens_per_example': {'min': 2, 'max': 335, 'mean': 102.16, 'median': 79.5, 'p5': 29.800000000000004, 'p95': 199.89999999999995}, 'n_billing_tokens_in_dataset': 49695, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>file-wowQMJ3f0lljjTO2hYlhLitD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>data/valid-100.jsonl</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'length': 100, 'format_errors': defaultdict(&lt;class 'int'&gt;, {}), 'n_missing_system': 0, 'n_missing_user': 0, 'num_messages_per_example': {'min': 3, 'max': 3, 'mean': 3.0, 'median': 3.0, 'p5': 3.0, 'p95': 3.0}, 'num_total_tokens_per_example': {'min': 146, 'max': 479, 'mean': 246.69, 'median': 227.5, 'p5': 176.0, 'p95': 349.40000000000003}, 'num_assistant_tokens_per_example': {'min': 2, 'max': 335, 'mean': 102.16, 'median': 79.5, 'p5': 29.8, 'p95': 199.9000000000001}, 'n_billing_tokens_in_dataset': 24669, 'n_epochs': 3}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>file-bMbez5oUTRPJYXKF6oAnNTuP</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -562,46 +593,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Job ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Spec</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ftjob-5jXekfGrsNIPst6JA5TbP9rH</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ftjob-lCzdvOo4xxm6qGyYparMylxb</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ftjob-Zfam5lkswdg1uNH8gaD1lINb</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ftjob-fS6yk4juP75gQJI4WZMySj1P</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
